--- a/data/trans_orig/IP07C28_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07C28_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBA7B12A-5F96-4931-A96F-308D7429668D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{46936FDC-4639-43D6-B616-5553487CE8D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{1DE106CB-3D90-4253-B0FE-6267EEB835B1}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{B9D9498B-C79C-469A-ABB1-FE98E71F1F81}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,18 +65,237 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>Nada</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>59,64%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>67,35%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>Un Poco</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>Moderadamente</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>Mucho</t>
+  </si>
+  <si>
+    <t>Muchísimo</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>75,24%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>Moderadamente</t>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
+  </si>
+  <si>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
   </si>
   <si>
     <t>2,33%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
     <t>8,06%</t>
   </si>
   <si>
@@ -95,9 +314,6 @@
     <t>5,45%</t>
   </si>
   <si>
-    <t>Mucho</t>
-  </si>
-  <si>
     <t>2,12%</t>
   </si>
   <si>
@@ -122,12 +338,6 @@
     <t>5,22%</t>
   </si>
   <si>
-    <t>Muchísimo</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
     <t>1,15%</t>
   </si>
   <si>
@@ -140,174 +350,165 @@
     <t>2,41%</t>
   </si>
   <si>
-    <t>Nada</t>
-  </si>
-  <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>Un Poco</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>73,62%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>75,24%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>71,12%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>61,11%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>76,96%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>68,75%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
     <t>1,46%</t>
   </si>
   <si>
@@ -353,205 +554,58 @@
     <t>4,46%</t>
   </si>
   <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>66,27%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>76,96%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>68,75%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>59,64%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>65,8%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>71,12%</t>
-  </si>
-  <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>61,11%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
+    <t>78,34%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>65,89%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
   </si>
   <si>
     <t>1,52%</t>
@@ -618,60 +672,6 @@
   </si>
   <si>
     <t>1,48%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>65,89%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
   </si>
 </sst>
 </file>
@@ -1063,7 +1063,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53CD42F4-FC05-4E1D-BEC0-BB0A2C020CFD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{849F707E-86DC-4156-AC08-A2F6C50C15B4}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1181,10 +1181,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>2397</v>
+        <v>1688</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1196,25 +1196,25 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>159</v>
+        <v>950</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N4" s="7">
-        <v>2555</v>
+        <v>2639</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
@@ -1223,211 +1223,211 @@
         <v>17</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>636</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="7">
-        <v>3</v>
-      </c>
-      <c r="D5" s="7">
-        <v>2174</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>643</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="K5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="7">
+        <v>2</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1279</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="7">
-        <v>3</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1764</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="P5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" s="7">
-        <v>6</v>
-      </c>
-      <c r="N5" s="7">
-        <v>3938</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="7">
-        <v>1</v>
-      </c>
-      <c r="I6" s="7">
-        <v>658</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M6" s="7">
-        <v>1</v>
-      </c>
-      <c r="N6" s="7">
-        <v>658</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C7" s="7">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>79749</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="H7" s="7">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>46428</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="M7" s="7">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>126178</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C8" s="7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>18378</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="H8" s="7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>8052</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="M8" s="7">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>26430</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1436,306 +1436,306 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>119</v>
+        <v>4</v>
       </c>
       <c r="D9" s="7">
-        <v>102698</v>
+        <v>2324</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="H9" s="7">
-        <v>79</v>
+        <v>3</v>
       </c>
       <c r="I9" s="7">
-        <v>57060</v>
+        <v>1593</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="M9" s="7">
-        <v>198</v>
+        <v>7</v>
       </c>
       <c r="N9" s="7">
-        <v>159759</v>
+        <v>3918</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="D10" s="7">
-        <v>849</v>
+        <v>36010</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="I10" s="7">
-        <v>728</v>
+        <v>25952</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="M10" s="7">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="N10" s="7">
-        <v>1576</v>
+        <v>61962</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>5106</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="7">
+        <v>6</v>
+      </c>
+      <c r="I11" s="7">
+        <v>3611</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M11" s="7">
         <v>12</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1003</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M11" s="7">
-        <v>1</v>
-      </c>
       <c r="N11" s="7">
-        <v>1003</v>
+        <v>8716</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>849</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
       </c>
       <c r="I12" s="7">
-        <v>605</v>
+        <v>728</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="M12" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N12" s="7">
-        <v>605</v>
+        <v>1576</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C13" s="7">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>36010</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="H13" s="7">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>25952</v>
+        <v>1003</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="M13" s="7">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>61962</v>
+        <v>1003</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>5106</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="H14" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>3611</v>
+        <v>605</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="M14" s="7">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="N14" s="7">
-        <v>8716</v>
+        <v>605</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1750,13 +1750,13 @@
         <v>41965</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="H15" s="7">
         <v>47</v>
@@ -1765,13 +1765,13 @@
         <v>31899</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="M15" s="7">
         <v>96</v>
@@ -1780,270 +1780,270 @@
         <v>73863</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="D16" s="7">
-        <v>822</v>
+        <v>79749</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="I16" s="7">
-        <v>568</v>
+        <v>46428</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="M16" s="7">
-        <v>2</v>
+        <v>156</v>
       </c>
       <c r="N16" s="7">
-        <v>1390</v>
+        <v>126178</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D17" s="7">
-        <v>612</v>
+        <v>18378</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H17" s="7">
         <v>12</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>8052</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="M17" s="7">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="N17" s="7">
-        <v>612</v>
+        <v>26430</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C18" s="7">
+        <v>2</v>
+      </c>
+      <c r="D18" s="7">
+        <v>2397</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H18" s="7">
         <v>1</v>
       </c>
-      <c r="D18" s="7">
-        <v>969</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H18" s="7">
-        <v>0</v>
-      </c>
       <c r="I18" s="7">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="M18" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N18" s="7">
-        <v>969</v>
+        <v>2555</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C19" s="7">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="D19" s="7">
-        <v>43508</v>
+        <v>2174</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="H19" s="7">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="I19" s="7">
-        <v>43471</v>
+        <v>1764</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>15</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="M19" s="7">
-        <v>112</v>
+        <v>6</v>
       </c>
       <c r="N19" s="7">
-        <v>86980</v>
+        <v>3938</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C20" s="7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>10430</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>15</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="H20" s="7">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>12445</v>
+        <v>658</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>15</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="M20" s="7">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="N20" s="7">
-        <v>22875</v>
+        <v>658</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>121</v>
+        <v>15</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2052,159 +2052,159 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="D21" s="7">
-        <v>56342</v>
+        <v>102698</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="H21" s="7">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I21" s="7">
-        <v>56484</v>
+        <v>57060</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="M21" s="7">
-        <v>145</v>
+        <v>198</v>
       </c>
       <c r="N21" s="7">
-        <v>112826</v>
+        <v>159759</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>48364</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>36525</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>84889</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>29</v>
+        <v>112</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C23" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
+        <v>12728</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H23" s="7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I23" s="7">
-        <v>0</v>
+        <v>17396</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="M23" s="7">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="N23" s="7">
-        <v>0</v>
+        <v>30124</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>29</v>
+        <v>121</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C24" s="7">
         <v>0</v>
@@ -2213,142 +2213,142 @@
         <v>0</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G24" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H24" s="7">
+        <v>1</v>
+      </c>
+      <c r="I24" s="7">
+        <v>418</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="K24" s="7" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>125</v>
       </c>
       <c r="M24" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24" s="7">
-        <v>0</v>
+        <v>418</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C25" s="7">
         <v>3</v>
       </c>
       <c r="D25" s="7">
-        <v>1688</v>
+        <v>2759</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H25" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" s="7">
-        <v>950</v>
+        <v>746</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M25" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N25" s="7">
-        <v>2639</v>
+        <v>3505</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>636</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>133</v>
+        <v>15</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>643</v>
+        <v>424</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K26" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>129</v>
-      </c>
       <c r="M26" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N26" s="7">
-        <v>1279</v>
+        <v>424</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>136</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>137</v>
@@ -2360,49 +2360,49 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="D27" s="7">
-        <v>2324</v>
+        <v>63851</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="H27" s="7">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="I27" s="7">
-        <v>1593</v>
+        <v>55509</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="M27" s="7">
-        <v>7</v>
+        <v>131</v>
       </c>
       <c r="N27" s="7">
-        <v>3918</v>
+        <v>119360</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2413,250 +2413,250 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="D28" s="7">
-        <v>0</v>
+        <v>43508</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>29</v>
+        <v>140</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H28" s="7">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="I28" s="7">
-        <v>418</v>
+        <v>43471</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>12</v>
+        <v>143</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M28" s="7">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="N28" s="7">
-        <v>418</v>
+        <v>86980</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>12</v>
+        <v>146</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C29" s="7">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D29" s="7">
-        <v>2759</v>
+        <v>10430</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="H29" s="7">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="I29" s="7">
-        <v>746</v>
+        <v>12445</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="M29" s="7">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="N29" s="7">
-        <v>3505</v>
+        <v>22875</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C30" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" s="7">
-        <v>0</v>
+        <v>822</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>12</v>
+        <v>157</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
       </c>
       <c r="I30" s="7">
-        <v>424</v>
+        <v>568</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="M30" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N30" s="7">
-        <v>424</v>
+        <v>1390</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C31" s="7">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="D31" s="7">
-        <v>48364</v>
+        <v>612</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>155</v>
+        <v>15</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="H31" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I31" s="7">
-        <v>36525</v>
+        <v>0</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>157</v>
+        <v>15</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>158</v>
+        <v>25</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="M31" s="7">
-        <v>102</v>
+        <v>1</v>
       </c>
       <c r="N31" s="7">
-        <v>84889</v>
+        <v>612</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>161</v>
+        <v>15</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C32" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D32" s="7">
-        <v>12728</v>
+        <v>969</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>164</v>
+        <v>15</v>
       </c>
       <c r="G32" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="H32" s="7">
-        <v>13</v>
-      </c>
-      <c r="I32" s="7">
-        <v>17396</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>168</v>
-      </c>
       <c r="M32" s="7">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="N32" s="7">
-        <v>30124</v>
+        <v>969</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>170</v>
+        <v>15</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>171</v>
@@ -2668,49 +2668,49 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D33" s="7">
-        <v>63851</v>
+        <v>56342</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="H33" s="7">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="I33" s="7">
-        <v>55509</v>
+        <v>56484</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="M33" s="7">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="N33" s="7">
-        <v>119360</v>
+        <v>112826</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2721,10 +2721,10 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>4</v>
+        <v>245</v>
       </c>
       <c r="D34" s="7">
-        <v>4068</v>
+        <v>209319</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>172</v>
@@ -2736,10 +2736,10 @@
         <v>174</v>
       </c>
       <c r="H34" s="7">
-        <v>4</v>
+        <v>210</v>
       </c>
       <c r="I34" s="7">
-        <v>1872</v>
+        <v>153327</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>175</v>
@@ -2751,202 +2751,202 @@
         <v>177</v>
       </c>
       <c r="M34" s="7">
-        <v>8</v>
+        <v>455</v>
       </c>
       <c r="N34" s="7">
-        <v>5940</v>
+        <v>362646</v>
       </c>
       <c r="O34" s="7" t="s">
         <v>178</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>21</v>
+        <v>179</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C35" s="7">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="D35" s="7">
-        <v>5546</v>
+        <v>47278</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H35" s="7">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="I35" s="7">
-        <v>3513</v>
+        <v>42146</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M35" s="7">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="N35" s="7">
-        <v>9059</v>
+        <v>89424</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>15</v>
+        <v>187</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C36" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D36" s="7">
-        <v>969</v>
+        <v>4068</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>152</v>
+        <v>190</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>12</v>
+        <v>191</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="H36" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I36" s="7">
-        <v>1687</v>
+        <v>1872</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="M36" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N36" s="7">
-        <v>2656</v>
+        <v>5940</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>192</v>
+        <v>93</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C37" s="7">
-        <v>245</v>
+        <v>7</v>
       </c>
       <c r="D37" s="7">
-        <v>209319</v>
+        <v>5546</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H37" s="7">
-        <v>210</v>
+        <v>5</v>
       </c>
       <c r="I37" s="7">
-        <v>153327</v>
+        <v>3513</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="M37" s="7">
-        <v>455</v>
+        <v>12</v>
       </c>
       <c r="N37" s="7">
-        <v>362646</v>
+        <v>9059</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>200</v>
+        <v>88</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C38" s="7">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D38" s="7">
-        <v>47278</v>
+        <v>969</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>203</v>
+        <v>136</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>204</v>
+        <v>15</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H38" s="7">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="I38" s="7">
-        <v>42146</v>
+        <v>1687</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>207</v>
@@ -2955,10 +2955,10 @@
         <v>208</v>
       </c>
       <c r="M38" s="7">
-        <v>98</v>
+        <v>4</v>
       </c>
       <c r="N38" s="7">
-        <v>89424</v>
+        <v>2656</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>209</v>
@@ -2982,13 +2982,13 @@
         <v>267180</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="H39" s="7">
         <v>270</v>
@@ -2997,13 +2997,13 @@
         <v>202546</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="M39" s="7">
         <v>577</v>
@@ -3012,13 +3012,13 @@
         <v>469726</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C28_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07C28_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46936FDC-4639-43D6-B616-5553487CE8D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{608CF1B6-4CA6-4936-9F80-8321B21F112F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{B9D9498B-C79C-469A-ABB1-FE98E71F1F81}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{67EFA872-CD87-4306-AFE8-C482E1D2E6A0}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="213">
   <si>
     <t>Menores según frecuencia de cansancio para realizar lo que te gusta en 2023 (Tasa respuesta: 30,05%)</t>
   </si>
@@ -68,6 +68,51 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Muchísimo</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>Mucho</t>
+  </si>
+  <si>
+    <t>Moderadamente</t>
+  </si>
+  <si>
+    <t>Un Poco</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
+  </si>
+  <si>
     <t>Nada</t>
   </si>
   <si>
@@ -77,601 +122,559 @@
     <t>21,22%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
     <t>59,64%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
     <t>67,35%</t>
   </si>
   <si>
     <t>25,79%</t>
   </si>
   <si>
-    <t>Un Poco</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>Moderadamente</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>Mucho</t>
-  </si>
-  <si>
-    <t>Muchísimo</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
     <t>85,81%</t>
   </si>
   <si>
-    <t>73,62%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
+    <t>72,37%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
   </si>
   <si>
     <t>81,36%</t>
   </si>
   <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
   </si>
   <si>
     <t>83,89%</t>
   </si>
   <si>
-    <t>75,24%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>66,47%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
   </si>
   <si>
     <t>4,54%</t>
   </si>
   <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>71,12%</t>
+  </si>
+  <si>
+    <t>53,27%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>76,96%</t>
+  </si>
+  <si>
+    <t>65,93%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
   </si>
   <si>
     <t>1,93%</t>
   </si>
   <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>65,8%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>71,12%</t>
-  </si>
-  <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>61,11%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>66,27%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>76,96%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>68,75%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
   </si>
   <si>
     <t>12,98%</t>
   </si>
   <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
   </si>
   <si>
     <t>78,34%</t>
   </si>
   <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
   </si>
   <si>
     <t>75,7%</t>
   </si>
   <si>
-    <t>65,89%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
+    <t>65,26%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
   </si>
   <si>
     <t>77,2%</t>
   </si>
   <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
+    <t>71,08%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -682,7 +685,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -778,39 +781,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -862,7 +865,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -973,13 +976,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -988,6 +984,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1052,19 +1055,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{849F707E-86DC-4156-AC08-A2F6C50C15B4}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B086AB4D-294E-497D-AC5F-C026B2D3A745}">
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1181,10 +1204,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>1688</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1196,91 +1219,91 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>950</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" s="7">
-        <v>5</v>
-      </c>
-      <c r="N4" s="7">
-        <v>2639</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>636</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7">
-        <v>643</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5" s="7">
-        <v>2</v>
-      </c>
-      <c r="N5" s="7">
-        <v>1279</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -1289,145 +1312,145 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>636</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>643</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>1279</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="7">
+        <v>3</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1688</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="7">
+        <v>2</v>
+      </c>
+      <c r="I8" s="7">
+        <v>950</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="7">
+        <v>5</v>
+      </c>
+      <c r="N8" s="7">
+        <v>2639</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1489,106 +1512,106 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>36010</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7">
+        <v>605</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="7">
-        <v>38</v>
-      </c>
-      <c r="I10" s="7">
-        <v>25952</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>1</v>
+      </c>
+      <c r="N10" s="7">
+        <v>605</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="P10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="M10" s="7">
-        <v>80</v>
-      </c>
-      <c r="N10" s="7">
-        <v>61962</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>5106</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H11" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>3611</v>
+        <v>1003</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="M11" s="7">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>8716</v>
+        <v>1003</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C12" s="7">
         <v>1</v>
@@ -1597,13 +1620,13 @@
         <v>849</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -1612,13 +1635,13 @@
         <v>728</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -1627,115 +1650,115 @@
         <v>1576</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>5106</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I13" s="7">
-        <v>1003</v>
+        <v>3611</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="N13" s="7">
-        <v>1003</v>
+        <v>8716</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>36010</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="I14" s="7">
-        <v>605</v>
+        <v>25952</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="M14" s="7">
+        <v>80</v>
+      </c>
+      <c r="N14" s="7">
+        <v>61962</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="M14" s="7">
-        <v>1</v>
-      </c>
-      <c r="N14" s="7">
-        <v>605</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1791,112 +1814,112 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>79749</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16" s="7">
+        <v>1</v>
+      </c>
+      <c r="I16" s="7">
+        <v>658</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="K16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>1</v>
+      </c>
+      <c r="N16" s="7">
+        <v>658</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="H16" s="7">
-        <v>62</v>
-      </c>
-      <c r="I16" s="7">
-        <v>46428</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="M16" s="7">
-        <v>156</v>
-      </c>
-      <c r="N16" s="7">
-        <v>126178</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>73</v>
-      </c>
       <c r="P16" s="7" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D17" s="7">
-        <v>18378</v>
+        <v>2174</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17" s="7">
+        <v>3</v>
+      </c>
+      <c r="I17" s="7">
+        <v>1764</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="M17" s="7">
+        <v>6</v>
+      </c>
+      <c r="N17" s="7">
+        <v>3938</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="H17" s="7">
-        <v>12</v>
-      </c>
-      <c r="I17" s="7">
-        <v>8052</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="M17" s="7">
-        <v>32</v>
-      </c>
-      <c r="N17" s="7">
-        <v>26430</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C18" s="7">
         <v>2</v>
@@ -1905,13 +1928,13 @@
         <v>2397</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -1920,13 +1943,13 @@
         <v>159</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="M18" s="7">
         <v>3</v>
@@ -1935,115 +1958,115 @@
         <v>2555</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C19" s="7">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D19" s="7">
-        <v>2174</v>
+        <v>18378</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H19" s="7">
+        <v>12</v>
+      </c>
+      <c r="I19" s="7">
+        <v>8052</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M19" s="7">
+        <v>32</v>
+      </c>
+      <c r="N19" s="7">
+        <v>26430</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="H19" s="7">
-        <v>3</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1764</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="M19" s="7">
-        <v>6</v>
-      </c>
-      <c r="N19" s="7">
-        <v>3938</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>79749</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="H20" s="7">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="I20" s="7">
-        <v>658</v>
+        <v>46428</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="M20" s="7">
+        <v>156</v>
+      </c>
+      <c r="N20" s="7">
+        <v>126178</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="M20" s="7">
-        <v>1</v>
-      </c>
-      <c r="N20" s="7">
-        <v>658</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2099,112 +2122,112 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>48364</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H22" s="7">
+        <v>1</v>
+      </c>
+      <c r="I22" s="7">
+        <v>424</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="K22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>1</v>
+      </c>
+      <c r="N22" s="7">
+        <v>424</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="H22" s="7">
-        <v>50</v>
-      </c>
-      <c r="I22" s="7">
-        <v>36525</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="P22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="M22" s="7">
-        <v>102</v>
-      </c>
-      <c r="N22" s="7">
-        <v>84889</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D23" s="7">
-        <v>12728</v>
+        <v>2759</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H23" s="7">
+        <v>1</v>
+      </c>
+      <c r="I23" s="7">
+        <v>746</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="M23" s="7">
+        <v>4</v>
+      </c>
+      <c r="N23" s="7">
+        <v>3505</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="P23" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="H23" s="7">
-        <v>13</v>
-      </c>
-      <c r="I23" s="7">
-        <v>17396</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="M23" s="7">
-        <v>23</v>
-      </c>
-      <c r="N23" s="7">
-        <v>30124</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C24" s="7">
         <v>0</v>
@@ -2213,13 +2236,13 @@
         <v>0</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -2228,13 +2251,13 @@
         <v>418</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -2243,115 +2266,115 @@
         <v>418</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C25" s="7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D25" s="7">
-        <v>2759</v>
+        <v>12728</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H25" s="7">
+        <v>13</v>
+      </c>
+      <c r="I25" s="7">
+        <v>17396</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="M25" s="7">
+        <v>23</v>
+      </c>
+      <c r="N25" s="7">
+        <v>30124</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="H25" s="7">
-        <v>1</v>
-      </c>
-      <c r="I25" s="7">
-        <v>746</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="M25" s="7">
-        <v>4</v>
-      </c>
-      <c r="N25" s="7">
-        <v>3505</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>48364</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>15</v>
+        <v>130</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="H26" s="7">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="I26" s="7">
-        <v>424</v>
+        <v>36525</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>135</v>
       </c>
       <c r="M26" s="7">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="N26" s="7">
-        <v>424</v>
+        <v>84889</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>136</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>15</v>
+        <v>137</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2407,112 +2430,112 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="D28" s="7">
-        <v>43508</v>
+        <v>969</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>140</v>
+        <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>141</v>
       </c>
       <c r="H28" s="7">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="I28" s="7">
-        <v>43471</v>
+        <v>0</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="M28" s="7">
+        <v>1</v>
+      </c>
+      <c r="N28" s="7">
+        <v>969</v>
+      </c>
+      <c r="O28" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="L28" s="7" t="s">
+      <c r="P28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="M28" s="7">
-        <v>112</v>
-      </c>
-      <c r="N28" s="7">
-        <v>86980</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C29" s="7">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D29" s="7">
-        <v>10430</v>
+        <v>612</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H29" s="7">
+        <v>0</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="M29" s="7">
+        <v>1</v>
+      </c>
+      <c r="N29" s="7">
+        <v>612</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="H29" s="7">
-        <v>16</v>
-      </c>
-      <c r="I29" s="7">
-        <v>12445</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="M29" s="7">
-        <v>29</v>
-      </c>
-      <c r="N29" s="7">
-        <v>22875</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C30" s="7">
         <v>1</v>
@@ -2521,13 +2544,13 @@
         <v>822</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
@@ -2536,13 +2559,13 @@
         <v>568</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="M30" s="7">
         <v>2</v>
@@ -2551,115 +2574,115 @@
         <v>1390</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="7">
+        <v>13</v>
+      </c>
+      <c r="D31" s="7">
+        <v>10430</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="H31" s="7">
+        <v>16</v>
+      </c>
+      <c r="I31" s="7">
+        <v>12445</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="M31" s="7">
         <v>29</v>
       </c>
-      <c r="C31" s="7">
-        <v>1</v>
-      </c>
-      <c r="D31" s="7">
-        <v>612</v>
-      </c>
-      <c r="E31" s="7" t="s">
+      <c r="N31" s="7">
+        <v>22875</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="H31" s="7">
-        <v>0</v>
-      </c>
-      <c r="I31" s="7">
-        <v>0</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="M31" s="7">
-        <v>1</v>
-      </c>
-      <c r="N31" s="7">
-        <v>612</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C32" s="7">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="D32" s="7">
-        <v>969</v>
+        <v>43508</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H32" s="7">
+        <v>58</v>
+      </c>
+      <c r="I32" s="7">
+        <v>43471</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="F32" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="H32" s="7">
-        <v>0</v>
-      </c>
-      <c r="I32" s="7">
-        <v>0</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>165</v>
-      </c>
       <c r="M32" s="7">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="N32" s="7">
-        <v>969</v>
+        <v>86980</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>170</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>15</v>
+        <v>171</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2721,106 +2744,106 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>245</v>
+        <v>1</v>
       </c>
       <c r="D34" s="7">
-        <v>209319</v>
+        <v>969</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>172</v>
+        <v>107</v>
       </c>
       <c r="F34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="H34" s="7">
+        <v>3</v>
+      </c>
+      <c r="I34" s="7">
+        <v>1687</v>
+      </c>
+      <c r="J34" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="H34" s="7">
-        <v>210</v>
-      </c>
-      <c r="I34" s="7">
-        <v>153327</v>
-      </c>
-      <c r="J34" s="7" t="s">
+      <c r="K34" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="L34" s="7" t="s">
+      <c r="M34" s="7">
+        <v>4</v>
+      </c>
+      <c r="N34" s="7">
+        <v>2656</v>
+      </c>
+      <c r="O34" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="M34" s="7">
-        <v>455</v>
-      </c>
-      <c r="N34" s="7">
-        <v>362646</v>
-      </c>
-      <c r="O34" s="7" t="s">
+      <c r="P34" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C35" s="7">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="D35" s="7">
-        <v>47278</v>
+        <v>5546</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="H35" s="7">
+        <v>5</v>
+      </c>
+      <c r="I35" s="7">
+        <v>3513</v>
+      </c>
+      <c r="J35" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="G35" s="7" t="s">
+      <c r="K35" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="H35" s="7">
-        <v>48</v>
-      </c>
-      <c r="I35" s="7">
-        <v>42146</v>
-      </c>
-      <c r="J35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="M35" s="7">
+        <v>12</v>
+      </c>
+      <c r="N35" s="7">
+        <v>9059</v>
+      </c>
+      <c r="O35" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="L35" s="7" t="s">
+      <c r="P35" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="M35" s="7">
-        <v>98</v>
-      </c>
-      <c r="N35" s="7">
-        <v>89424</v>
-      </c>
-      <c r="O35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C36" s="7">
         <v>4</v>
@@ -2829,13 +2852,13 @@
         <v>4068</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H36" s="7">
         <v>4</v>
@@ -2844,13 +2867,13 @@
         <v>1872</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>194</v>
+        <v>81</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="M36" s="7">
         <v>8</v>
@@ -2859,94 +2882,94 @@
         <v>5940</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>196</v>
+        <v>110</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>93</v>
+        <v>192</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C37" s="7">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="D37" s="7">
-        <v>5546</v>
+        <v>47278</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="H37" s="7">
+        <v>48</v>
+      </c>
+      <c r="I37" s="7">
+        <v>42146</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="M37" s="7">
+        <v>98</v>
+      </c>
+      <c r="N37" s="7">
+        <v>89424</v>
+      </c>
+      <c r="O37" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="H37" s="7">
-        <v>5</v>
-      </c>
-      <c r="I37" s="7">
-        <v>3513</v>
-      </c>
-      <c r="J37" s="7" t="s">
+      <c r="P37" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="M37" s="7">
-        <v>12</v>
-      </c>
-      <c r="N37" s="7">
-        <v>9059</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C38" s="7">
-        <v>1</v>
+        <v>245</v>
       </c>
       <c r="D38" s="7">
-        <v>969</v>
+        <v>209319</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>136</v>
+        <v>203</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>15</v>
+        <v>204</v>
       </c>
       <c r="G38" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="H38" s="7">
+        <v>210</v>
+      </c>
+      <c r="I38" s="7">
+        <v>153327</v>
+      </c>
+      <c r="J38" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="H38" s="7">
-        <v>3</v>
-      </c>
-      <c r="I38" s="7">
-        <v>1687</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>207</v>
@@ -2955,10 +2978,10 @@
         <v>208</v>
       </c>
       <c r="M38" s="7">
-        <v>4</v>
+        <v>455</v>
       </c>
       <c r="N38" s="7">
-        <v>2656</v>
+        <v>362646</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>209</v>
@@ -3019,6 +3042,11 @@
       </c>
       <c r="Q39" s="7" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C28_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07C28_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{608CF1B6-4CA6-4936-9F80-8321B21F112F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{64AD2508-166E-4815-BB8D-FF048D0B808D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{67EFA872-CD87-4306-AFE8-C482E1D2E6A0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1F63F8A1-16E3-4A38-8B2C-EE6E78A074C4}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Muchísimo</t>
@@ -98,7 +98,7 @@
     <t>27,37%</t>
   </si>
   <si>
-    <t>78,78%</t>
+    <t>84,26%</t>
   </si>
   <si>
     <t>40,36%</t>
@@ -110,7 +110,7 @@
     <t>32,65%</t>
   </si>
   <si>
-    <t>74,21%</t>
+    <t>75,17%</t>
   </si>
   <si>
     <t>Nada</t>
@@ -119,7 +119,7 @@
     <t>72,63%</t>
   </si>
   <si>
-    <t>21,22%</t>
+    <t>15,74%</t>
   </si>
   <si>
     <t>59,64%</t>
@@ -128,13 +128,13 @@
     <t>67,35%</t>
   </si>
   <si>
-    <t>25,79%</t>
+    <t>24,83%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>3,82%</t>
@@ -143,97 +143,100 @@
     <t>1,9%</t>
   </si>
   <si>
-    <t>11,03%</t>
+    <t>9,98%</t>
   </si>
   <si>
     <t>0,82%</t>
   </si>
   <si>
-    <t>3,63%</t>
+    <t>4,12%</t>
   </si>
   <si>
     <t>3,15%</t>
   </si>
   <si>
-    <t>13,7%</t>
+    <t>17,19%</t>
   </si>
   <si>
     <t>1,36%</t>
   </si>
   <si>
-    <t>6,38%</t>
+    <t>6,34%</t>
   </si>
   <si>
     <t>2,02%</t>
   </si>
   <si>
-    <t>9,54%</t>
+    <t>10,0%</t>
   </si>
   <si>
     <t>2,28%</t>
   </si>
   <si>
-    <t>13,37%</t>
+    <t>12,52%</t>
   </si>
   <si>
     <t>2,13%</t>
   </si>
   <si>
-    <t>7,58%</t>
+    <t>7,24%</t>
   </si>
   <si>
     <t>12,17%</t>
   </si>
   <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
   </si>
   <si>
     <t>11,32%</t>
   </si>
   <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
   </si>
   <si>
     <t>11,8%</t>
   </si>
   <si>
-    <t>20,24%</t>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
   </si>
   <si>
     <t>85,81%</t>
   </si>
   <si>
-    <t>72,37%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
+    <t>72,25%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
   </si>
   <si>
     <t>81,36%</t>
   </si>
   <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
+    <t>66,38%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
   </si>
   <si>
     <t>83,89%</t>
   </si>
   <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>1,6%</t>
@@ -242,112 +245,112 @@
     <t>1,15%</t>
   </si>
   <si>
-    <t>5,79%</t>
+    <t>5,31%</t>
   </si>
   <si>
     <t>0,41%</t>
   </si>
   <si>
+    <t>2,74%</t>
+  </si>
+  <si>
     <t>2,12%</t>
   </si>
   <si>
     <t>0,56%</t>
   </si>
   <si>
-    <t>5,85%</t>
+    <t>5,8%</t>
   </si>
   <si>
     <t>3,09%</t>
   </si>
   <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
   </si>
   <si>
     <t>2,47%</t>
   </si>
   <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
   </si>
   <si>
     <t>2,33%</t>
   </si>
   <si>
-    <t>7,19%</t>
+    <t>7,88%</t>
   </si>
   <si>
     <t>0,28%</t>
   </si>
   <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
   </si>
   <si>
     <t>17,9%</t>
   </si>
   <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
   </si>
   <si>
     <t>14,11%</t>
   </si>
   <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
   </si>
   <si>
     <t>16,54%</t>
   </si>
   <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
   </si>
   <si>
     <t>77,65%</t>
   </si>
   <si>
-    <t>66,47%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
   </si>
   <si>
     <t>81,37%</t>
   </si>
   <si>
-    <t>72,17%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
+    <t>89,01%</t>
   </si>
   <si>
     <t>78,98%</t>
   </si>
   <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>71,2%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>2,9%</t>
@@ -356,322 +359,319 @@
     <t>0,76%</t>
   </si>
   <si>
-    <t>4,54%</t>
+    <t>3,7%</t>
   </si>
   <si>
     <t>0,36%</t>
   </si>
   <si>
-    <t>1,62%</t>
+    <t>1,73%</t>
   </si>
   <si>
     <t>4,32%</t>
   </si>
   <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>59,25%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>59,6%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>71,12%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>66,26%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>76,96%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
     <t>1,26%</t>
   </si>
   <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>58,51%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>65,8%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>71,12%</t>
-  </si>
-  <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>76,96%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
+    <t>2,62%</t>
   </si>
   <si>
     <t>17,7%</t>
   </si>
   <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
   </si>
   <si>
     <t>20,81%</t>
   </si>
   <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
   </si>
   <si>
     <t>19,04%</t>
   </si>
   <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
   </si>
   <si>
     <t>78,34%</t>
   </si>
   <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
   </si>
   <si>
     <t>75,7%</t>
   </si>
   <si>
-    <t>65,26%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
+    <t>63,99%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
   </si>
   <si>
     <t>77,2%</t>
   </si>
   <si>
-    <t>71,08%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1086,7 +1086,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B086AB4D-294E-497D-AC5F-C026B2D3A745}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E09181D7-E204-450A-B736-169AFF0CF849}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1704,10 +1704,10 @@
         <v>54</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1722,13 +1722,13 @@
         <v>36010</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H14" s="7">
         <v>38</v>
@@ -1737,13 +1737,13 @@
         <v>25952</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M14" s="7">
         <v>80</v>
@@ -1752,13 +1752,13 @@
         <v>61962</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1814,7 +1814,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1832,7 +1832,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -1841,13 +1841,13 @@
         <v>658</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -1856,13 +1856,13 @@
         <v>658</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1877,13 +1877,13 @@
         <v>2174</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -1892,13 +1892,13 @@
         <v>1764</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -1907,13 +1907,13 @@
         <v>3938</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1928,13 +1928,13 @@
         <v>2397</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -1943,13 +1943,13 @@
         <v>159</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M18" s="7">
         <v>3</v>
@@ -1958,13 +1958,13 @@
         <v>2555</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1979,13 +1979,13 @@
         <v>18378</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H19" s="7">
         <v>12</v>
@@ -1994,13 +1994,13 @@
         <v>8052</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M19" s="7">
         <v>32</v>
@@ -2009,13 +2009,13 @@
         <v>26430</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2030,13 +2030,13 @@
         <v>79749</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H20" s="7">
         <v>62</v>
@@ -2045,13 +2045,13 @@
         <v>46428</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>98</v>
+        <v>26</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M20" s="7">
         <v>156</v>
@@ -2060,13 +2060,13 @@
         <v>126178</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2122,7 +2122,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2140,7 +2140,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -2149,13 +2149,13 @@
         <v>424</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -2164,13 +2164,13 @@
         <v>424</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2185,13 +2185,13 @@
         <v>2759</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -2200,13 +2200,13 @@
         <v>746</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M23" s="7">
         <v>4</v>
@@ -2215,13 +2215,13 @@
         <v>3505</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2242,7 +2242,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -2251,13 +2251,13 @@
         <v>418</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -2266,13 +2266,13 @@
         <v>418</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2287,13 +2287,13 @@
         <v>12728</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H25" s="7">
         <v>13</v>
@@ -2302,13 +2302,13 @@
         <v>17396</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M25" s="7">
         <v>23</v>
@@ -2317,13 +2317,13 @@
         <v>30124</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2338,13 +2338,13 @@
         <v>48364</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H26" s="7">
         <v>50</v>
@@ -2353,13 +2353,13 @@
         <v>36525</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M26" s="7">
         <v>102</v>
@@ -2368,13 +2368,13 @@
         <v>84889</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2430,7 +2430,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2442,13 +2442,13 @@
         <v>969</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -2463,7 +2463,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M28" s="7">
         <v>1</v>
@@ -2472,13 +2472,13 @@
         <v>969</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2493,13 +2493,13 @@
         <v>612</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -2514,7 +2514,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M29" s="7">
         <v>1</v>
@@ -2523,13 +2523,13 @@
         <v>612</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>148</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2750,13 +2750,13 @@
         <v>969</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>173</v>
+        <v>109</v>
       </c>
       <c r="H34" s="7">
         <v>3</v>
@@ -2765,13 +2765,13 @@
         <v>1687</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M34" s="7">
         <v>4</v>
@@ -2780,13 +2780,13 @@
         <v>2656</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2801,10 +2801,10 @@
         <v>5546</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>181</v>
@@ -2816,13 +2816,13 @@
         <v>3513</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M35" s="7">
         <v>12</v>
@@ -2831,13 +2831,13 @@
         <v>9059</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2852,13 +2852,13 @@
         <v>4068</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="F36" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H36" s="7">
         <v>4</v>
@@ -2867,10 +2867,10 @@
         <v>1872</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>191</v>
@@ -2882,10 +2882,10 @@
         <v>5940</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>110</v>
+        <v>192</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="Q36" s="7" t="s">
         <v>193</v>

--- a/data/trans_orig/IP07C28_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07C28_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{64AD2508-166E-4815-BB8D-FF048D0B808D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6D51BD9-DFF0-476A-BD60-51B1A2C5E8F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1F63F8A1-16E3-4A38-8B2C-EE6E78A074C4}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{BF9D3A46-53E6-4252-8F56-921F3A238C18}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="179">
   <si>
     <t>Menores según frecuencia de cansancio para realizar lo que te gusta en 2023 (Tasa respuesta: 30,05%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,10 +65,70 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
-  </si>
-  <si>
-    <t>Muchísimo</t>
+    <t>&lt;10.000 hab</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>58,8%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>72,75%</t>
+  </si>
+  <si>
+    <t>71,88%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>66,73%</t>
+  </si>
+  <si>
+    <t>56,17%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>55,78%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -77,601 +137,439 @@
     <t>0%</t>
   </si>
   <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>Mucho</t>
-  </si>
-  <si>
-    <t>Moderadamente</t>
-  </si>
-  <si>
-    <t>Un Poco</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>75,17%</t>
-  </si>
-  <si>
-    <t>Nada</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>59,64%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>72,25%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>66,38%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>61,27%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>58,88%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>59,7%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>71,42%</t>
+  </si>
+  <si>
+    <t>54,37%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
   </si>
   <si>
     <t>83,89%</t>
   </si>
   <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>65,81%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>71,2%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>69,37%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
   </si>
   <si>
     <t>2,9%</t>
   </si>
   <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>59,6%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>65,8%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>71,12%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
+    <t>1,45%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
+    <t>67,27%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>57,39%</t>
+  </si>
+  <si>
+    <t>72,84%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
   </si>
   <si>
     <t>2,52%</t>
   </si>
   <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
     <t>0,86%</t>
   </si>
   <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>66,26%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>76,96%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>63,99%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>65,59%</t>
+  </si>
+  <si>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>58,91%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>50,15%</t>
+  </si>
+  <si>
+    <t>66,96%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1086,8 +984,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E09181D7-E204-450A-B736-169AFF0CF849}">
-  <dimension ref="A1:Q40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44DB186E-E991-4357-B218-F668F3836F52}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1204,10 +1102,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>18329</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1219,91 +1117,91 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>34518</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>52848</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>12844</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>10602</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>23445</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -1312,145 +1210,145 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>2901</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>2901</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>636</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>643</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="M7" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>1279</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C8" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>1688</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="H8" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>950</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="M8" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>2639</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1459,306 +1357,306 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="D9" s="7">
-        <v>2324</v>
+        <v>31173</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H9" s="7">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="I9" s="7">
-        <v>1593</v>
+        <v>48021</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="M9" s="7">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="N9" s="7">
-        <v>3918</v>
+        <v>79194</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>32860</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="I10" s="7">
-        <v>605</v>
+        <v>60512</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
+        <v>121</v>
       </c>
       <c r="N10" s="7">
-        <v>605</v>
+        <v>93371</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>19542</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="I11" s="7">
-        <v>1003</v>
+        <v>39006</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="N11" s="7">
-        <v>1003</v>
+        <v>58547</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D12" s="7">
-        <v>849</v>
+        <v>1231</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="H12" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I12" s="7">
-        <v>728</v>
+        <v>2279</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="M12" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N12" s="7">
-        <v>1576</v>
+        <v>3511</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>5106</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="H13" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>3611</v>
+        <v>622</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>8716</v>
+        <v>622</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C14" s="7">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>36010</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="H14" s="7">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>25952</v>
+        <v>358</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="M14" s="7">
+        <v>1</v>
+      </c>
+      <c r="N14" s="7">
+        <v>358</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="N14" s="7">
-        <v>61962</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>63</v>
-      </c>
       <c r="P14" s="7" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1767,306 +1665,306 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D15" s="7">
-        <v>41965</v>
+        <v>53633</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H15" s="7">
-        <v>47</v>
+        <v>119</v>
       </c>
       <c r="I15" s="7">
-        <v>31899</v>
+        <v>102777</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="M15" s="7">
-        <v>96</v>
+        <v>198</v>
       </c>
       <c r="N15" s="7">
-        <v>73863</v>
+        <v>156410</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>30546</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="I16" s="7">
-        <v>658</v>
+        <v>46081</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="M16" s="7">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="N16" s="7">
-        <v>658</v>
+        <v>76627</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="D17" s="7">
-        <v>2174</v>
+        <v>40477</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="H17" s="7">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="I17" s="7">
-        <v>1764</v>
+        <v>16332</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="M17" s="7">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="N17" s="7">
-        <v>3938</v>
+        <v>56810</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>2</v>
       </c>
       <c r="D18" s="7">
-        <v>2397</v>
+        <v>1160</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="H18" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" s="7">
-        <v>159</v>
+        <v>1642</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="M18" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N18" s="7">
-        <v>2555</v>
+        <v>2802</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>18378</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="H19" s="7">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>8052</v>
+        <v>923</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="M19" s="7">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="N19" s="7">
-        <v>26430</v>
+        <v>923</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C20" s="7">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>79749</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="H20" s="7">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>46428</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="M20" s="7">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>126178</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>101</v>
+        <v>31</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>102</v>
+        <v>32</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2075,306 +1973,306 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>119</v>
+        <v>66</v>
       </c>
       <c r="D21" s="7">
-        <v>102698</v>
+        <v>72183</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H21" s="7">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="I21" s="7">
-        <v>57060</v>
+        <v>64978</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="M21" s="7">
-        <v>198</v>
+        <v>131</v>
       </c>
       <c r="N21" s="7">
-        <v>159759</v>
+        <v>137161</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>35980</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>11</v>
+        <v>115</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="H22" s="7">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="I22" s="7">
-        <v>424</v>
+        <v>35930</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>11</v>
+        <v>119</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="M22" s="7">
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="N22" s="7">
-        <v>424</v>
+        <v>71909</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>11</v>
+        <v>122</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="D23" s="7">
-        <v>2759</v>
+        <v>15978</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="H23" s="7">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="I23" s="7">
-        <v>746</v>
+        <v>18020</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>11</v>
+        <v>128</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="M23" s="7">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="N23" s="7">
-        <v>3505</v>
+        <v>33998</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D24" s="7">
-        <v>0</v>
+        <v>1525</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>11</v>
+        <v>133</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="H24" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I24" s="7">
-        <v>418</v>
+        <v>2256</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>11</v>
+        <v>136</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="M24" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N24" s="7">
-        <v>418</v>
+        <v>3781</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>11</v>
+        <v>139</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D25" s="7">
-        <v>12728</v>
+        <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>122</v>
+        <v>31</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>123</v>
+        <v>32</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="H25" s="7">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="I25" s="7">
-        <v>17396</v>
+        <v>165</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>126</v>
+        <v>31</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="M25" s="7">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="N25" s="7">
-        <v>30124</v>
+        <v>165</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>129</v>
+        <v>31</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C26" s="7">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>48364</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>132</v>
+        <v>32</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="H26" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>36525</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>134</v>
+        <v>31</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>135</v>
+        <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="M26" s="7">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="N26" s="7">
-        <v>84889</v>
+        <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>137</v>
+        <v>31</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>138</v>
+        <v>32</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2383,306 +2281,306 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D27" s="7">
-        <v>63851</v>
+        <v>53483</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H27" s="7">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I27" s="7">
-        <v>55509</v>
+        <v>56371</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="M27" s="7">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="N27" s="7">
-        <v>119360</v>
+        <v>109854</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>140</v>
+        <v>3</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>1</v>
+        <v>174</v>
       </c>
       <c r="D28" s="7">
-        <v>969</v>
+        <v>117715</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>11</v>
+        <v>148</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="H28" s="7">
-        <v>0</v>
+        <v>202</v>
       </c>
       <c r="I28" s="7">
-        <v>0</v>
+        <v>177040</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>11</v>
+        <v>150</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>12</v>
+        <v>151</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="M28" s="7">
-        <v>1</v>
+        <v>376</v>
       </c>
       <c r="N28" s="7">
-        <v>969</v>
+        <v>294755</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>11</v>
+        <v>154</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="D29" s="7">
-        <v>612</v>
+        <v>88841</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>11</v>
+        <v>157</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="H29" s="7">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="I29" s="7">
-        <v>0</v>
+        <v>83959</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>11</v>
+        <v>159</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="M29" s="7">
-        <v>1</v>
+        <v>177</v>
       </c>
       <c r="N29" s="7">
-        <v>612</v>
+        <v>172800</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>11</v>
+        <v>163</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D30" s="7">
-        <v>822</v>
+        <v>3916</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>11</v>
+        <v>165</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="H30" s="7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I30" s="7">
-        <v>568</v>
+        <v>9079</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="M30" s="7">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="N30" s="7">
-        <v>1390</v>
+        <v>12995</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>11</v>
+        <v>169</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C31" s="7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D31" s="7">
-        <v>10430</v>
+        <v>0</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>155</v>
+        <v>31</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>156</v>
+        <v>32</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="H31" s="7">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="I31" s="7">
-        <v>12445</v>
+        <v>1710</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="M31" s="7">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="N31" s="7">
-        <v>22875</v>
+        <v>1710</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>161</v>
+        <v>78</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C32" s="7">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="D32" s="7">
-        <v>43508</v>
+        <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>164</v>
+        <v>31</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>165</v>
+        <v>32</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="H32" s="7">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="I32" s="7">
-        <v>43471</v>
+        <v>358</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>168</v>
+        <v>31</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>169</v>
+        <v>110</v>
       </c>
       <c r="M32" s="7">
-        <v>112</v>
+        <v>1</v>
       </c>
       <c r="N32" s="7">
-        <v>86980</v>
+        <v>358</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>171</v>
+        <v>31</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>172</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2691,370 +2589,61 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="D33" s="7">
-        <v>56342</v>
+        <v>210472</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H33" s="7">
-        <v>75</v>
+        <v>307</v>
       </c>
       <c r="I33" s="7">
-        <v>56484</v>
+        <v>272147</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="M33" s="7">
-        <v>145</v>
+        <v>577</v>
       </c>
       <c r="N33" s="7">
-        <v>112826</v>
+        <v>482619</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="7">
-        <v>1</v>
-      </c>
-      <c r="D34" s="7">
-        <v>969</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H34" s="7">
-        <v>3</v>
-      </c>
-      <c r="I34" s="7">
-        <v>1687</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="M34" s="7">
-        <v>4</v>
-      </c>
-      <c r="N34" s="7">
-        <v>2656</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q34" s="7" t="s">
+      <c r="A34" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" s="7">
-        <v>7</v>
-      </c>
-      <c r="D35" s="7">
-        <v>5546</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="H35" s="7">
-        <v>5</v>
-      </c>
-      <c r="I35" s="7">
-        <v>3513</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="M35" s="7">
-        <v>12</v>
-      </c>
-      <c r="N35" s="7">
-        <v>9059</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" s="7">
-        <v>4</v>
-      </c>
-      <c r="D36" s="7">
-        <v>4068</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="H36" s="7">
-        <v>4</v>
-      </c>
-      <c r="I36" s="7">
-        <v>1872</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="M36" s="7">
-        <v>8</v>
-      </c>
-      <c r="N36" s="7">
-        <v>5940</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C37" s="7">
-        <v>50</v>
-      </c>
-      <c r="D37" s="7">
-        <v>47278</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="H37" s="7">
-        <v>48</v>
-      </c>
-      <c r="I37" s="7">
-        <v>42146</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="M37" s="7">
-        <v>98</v>
-      </c>
-      <c r="N37" s="7">
-        <v>89424</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C38" s="7">
-        <v>245</v>
-      </c>
-      <c r="D38" s="7">
-        <v>209319</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="H38" s="7">
-        <v>210</v>
-      </c>
-      <c r="I38" s="7">
-        <v>153327</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="M38" s="7">
-        <v>455</v>
-      </c>
-      <c r="N38" s="7">
-        <v>362646</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="7">
-        <v>307</v>
-      </c>
-      <c r="D39" s="7">
-        <v>267180</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H39" s="7">
-        <v>270</v>
-      </c>
-      <c r="I39" s="7">
-        <v>202546</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M39" s="7">
-        <v>577</v>
-      </c>
-      <c r="N39" s="7">
-        <v>469726</v>
-      </c>
-      <c r="O39" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>212</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
-    <mergeCell ref="A34:A39"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
